--- a/excels/materiales/05Madera.xlsx
+++ b/excels/materiales/05Madera.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\COTOCO\excels\materiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="456" windowWidth="22716" windowHeight="13464"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -83,32 +83,13 @@
     <t>Alfajilla 2x3x4v</t>
   </si>
   <si>
-    <t>3045.45</t>
-  </si>
-  <si>
     <t>Unidad</t>
-  </si>
-  <si>
-    <t>1768.18</t>
-  </si>
-  <si>
-    <t>1795.45</t>
-  </si>
-  <si>
-    <t>1754.55</t>
-  </si>
-  <si>
-    <t>4022.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$₡-140A]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;₡&quot;#,##0"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,19 +588,17 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,6 +623,7 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -660,7 +640,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -670,6 +649,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,24 +947,24 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +977,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1014,22 +996,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>5001</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7">
+        <v>3045.45</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -1044,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>5002</v>
@@ -1055,8 +1037,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1072,9 +1053,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>5003</v>
       </c>
       <c r="C4" s="2">
@@ -1083,8 +1064,7 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1100,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>5004</v>
@@ -1108,13 +1088,13 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7">
+        <v>1768.18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1130,21 +1110,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>5005</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="7">
+        <v>1795.45</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1160,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>5006</v>
@@ -1171,10 +1151,10 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="7">
+        <v>1754.55</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1190,9 +1170,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5007</v>
       </c>
       <c r="C8" s="2">
@@ -1201,10 +1181,10 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="7">
+        <v>4022.73</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">

--- a/excels/materiales/05Madera.xlsx
+++ b/excels/materiales/05Madera.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\COTOCO\excels\materiales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="456" windowWidth="22716" windowHeight="13464"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -84,15 +84,40 @@
   </si>
   <si>
     <t>Unidad</t>
+  </si>
+  <si>
+    <t>3045.45</t>
+  </si>
+  <si>
+    <t>1768.18</t>
+  </si>
+  <si>
+    <t>1795.45</t>
+  </si>
+  <si>
+    <t>1754.55</t>
+  </si>
+  <si>
+    <t>4022.73</t>
+  </si>
+  <si>
+    <t>product_discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +450,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,59 +583,64 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -623,7 +665,6 @@
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -640,6 +681,7 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -944,27 +986,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1020,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -995,208 +1038,227 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>5001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4">
+        <v>5001</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7">
-        <v>3045.45</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>5002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="7">
+        <v>5002</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>5003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4">
+        <v>5003</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>5004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="7">
+        <v>5004</v>
+      </c>
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
-        <v>1768.18</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5005</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="4">
+        <v>5005</v>
+      </c>
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
-        <v>1795.45</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>5006</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="7">
+        <v>5006</v>
+      </c>
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
-        <v>1754.55</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4">
+        <v>5007</v>
+      </c>
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7">
-        <v>4022.73</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <v>13</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
     </row>

--- a/excels/materiales/05Madera.xlsx
+++ b/excels/materiales/05Madera.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="19320" windowHeight="13455"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,8 +102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,48 +638,48 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -742,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,29 +980,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="8" customFormat="1">
       <c r="A2" s="4">
         <v>5001</v>
       </c>
@@ -1074,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1">
       <c r="A3" s="7">
         <v>5002</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1">
       <c r="A4" s="4">
         <v>5003</v>
       </c>
@@ -1134,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1">
       <c r="A5" s="7">
         <v>5004</v>
       </c>
@@ -1166,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1">
       <c r="A6" s="4">
         <v>5005</v>
       </c>
@@ -1198,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="8" customFormat="1">
       <c r="A7" s="7">
         <v>5006</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1">
       <c r="A8" s="4">
         <v>5007</v>
       </c>
